--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABC/15/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABC/15/seed1/result_data_RandomForest.xlsx
@@ -485,10 +485,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-22.44080000000001</v>
+        <v>-22.37940000000002</v>
       </c>
       <c r="B4" t="n">
-        <v>5.220600000000001</v>
+        <v>5.4847</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-22.74470000000001</v>
+        <v>-22.90320000000001</v>
       </c>
       <c r="B6" t="n">
         <v>5.51</v>
@@ -527,13 +527,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-20.11379999999997</v>
+        <v>-19.98729999999998</v>
       </c>
       <c r="B7" t="n">
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-12.678</v>
+        <v>-12.49080000000001</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -547,7 +547,7 @@
         <v>2.91</v>
       </c>
       <c r="C8" t="n">
-        <v>-11.72409999999999</v>
+        <v>-11.98049999999999</v>
       </c>
       <c r="D8" t="n">
         <v>-8.029999999999999</v>
@@ -558,7 +558,7 @@
         <v>-21.5</v>
       </c>
       <c r="B9" t="n">
-        <v>6.144999999999999</v>
+        <v>6.188399999999997</v>
       </c>
       <c r="C9" t="n">
         <v>-11.36</v>
@@ -575,7 +575,7 @@
         <v>6.17</v>
       </c>
       <c r="C10" t="n">
-        <v>-13.80519999999999</v>
+        <v>-13.7572</v>
       </c>
       <c r="D10" t="n">
         <v>-8.85</v>
@@ -600,7 +600,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.726299999999998</v>
+        <v>4.755599999999998</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -617,7 +617,7 @@
         <v>4.02</v>
       </c>
       <c r="C13" t="n">
-        <v>-13.40939999999998</v>
+        <v>-13.74599999999999</v>
       </c>
       <c r="D13" t="n">
         <v>-8.359999999999999</v>
@@ -653,13 +653,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.9366</v>
+        <v>-21.88209999999999</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
       </c>
       <c r="C16" t="n">
-        <v>-11.9022</v>
+        <v>-12.75890000000001</v>
       </c>
       <c r="D16" t="n">
         <v>-9.27</v>
@@ -670,7 +670,7 @@
         <v>-22.45</v>
       </c>
       <c r="B17" t="n">
-        <v>5.732399999999999</v>
+        <v>5.770499999999998</v>
       </c>
       <c r="C17" t="n">
         <v>-14.84</v>
@@ -684,7 +684,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>6.488099999999995</v>
+        <v>6.421599999999995</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -698,7 +698,7 @@
         <v>-18.24</v>
       </c>
       <c r="B19" t="n">
-        <v>9.120799999999996</v>
+        <v>9.186899999999998</v>
       </c>
       <c r="C19" t="n">
         <v>-12.15</v>
@@ -709,10 +709,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.22250000000001</v>
+        <v>-22.13040000000001</v>
       </c>
       <c r="B20" t="n">
-        <v>4.978999999999996</v>
+        <v>4.965899999999997</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -796,7 +796,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>4.344500000000003</v>
+        <v>4.274200000000003</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-22.0324</v>
+        <v>-21.9289</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.21949999999997</v>
+        <v>-21.32889999999998</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -855,7 +855,7 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-12.6598</v>
+        <v>-11.9966</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
@@ -866,7 +866,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>4.0652</v>
+        <v>4.055599999999997</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.253</v>
+        <v>-21.22990000000001</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -978,7 +978,7 @@
         <v>-18.76</v>
       </c>
       <c r="B39" t="n">
-        <v>9.561100000000005</v>
+        <v>9.348300000000005</v>
       </c>
       <c r="C39" t="n">
         <v>-10.58</v>
@@ -989,13 +989,13 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-21.95729999999998</v>
+        <v>-21.78629999999998</v>
       </c>
       <c r="B40" t="n">
-        <v>5.904700000000002</v>
+        <v>5.846300000000006</v>
       </c>
       <c r="C40" t="n">
-        <v>-12.3249</v>
+        <v>-12.5063</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1006,7 +1006,7 @@
         <v>-19.28</v>
       </c>
       <c r="B41" t="n">
-        <v>9.263999999999989</v>
+        <v>9.318399999999992</v>
       </c>
       <c r="C41" t="n">
         <v>-14.21</v>
@@ -1020,7 +1020,7 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>9.153599999999994</v>
+        <v>9.394099999999993</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
@@ -1034,7 +1034,7 @@
         <v>-22.33</v>
       </c>
       <c r="B43" t="n">
-        <v>6.108300000000003</v>
+        <v>6.296900000000004</v>
       </c>
       <c r="C43" t="n">
         <v>-11.77</v>
@@ -1051,7 +1051,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-13.1153</v>
+        <v>-13.42929999999999</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.7931</v>
+        <v>-21.7591</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1090,7 +1090,7 @@
         <v>-21.83</v>
       </c>
       <c r="B47" t="n">
-        <v>5.197900000000003</v>
+        <v>5.567500000000003</v>
       </c>
       <c r="C47" t="n">
         <v>-11.84</v>
@@ -1104,7 +1104,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.236100000000006</v>
+        <v>5.531000000000006</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-21.83769999999999</v>
+        <v>-21.785</v>
       </c>
       <c r="B51" t="n">
         <v>4.98</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.25869999999999</v>
+        <v>-22.17149999999999</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-21.92000000000002</v>
+        <v>-21.78430000000002</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.10060000000001</v>
+        <v>-22.09580000000001</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-22.09480000000001</v>
+        <v>-22.11800000000002</v>
       </c>
       <c r="B62" t="n">
         <v>4.28</v>
@@ -1314,7 +1314,7 @@
         <v>-21.46</v>
       </c>
       <c r="B63" t="n">
-        <v>4.780299999999998</v>
+        <v>4.758499999999998</v>
       </c>
       <c r="C63" t="n">
         <v>-9.970000000000001</v>
@@ -1328,7 +1328,7 @@
         <v>-21.62</v>
       </c>
       <c r="B64" t="n">
-        <v>5.308300000000003</v>
+        <v>5.3964</v>
       </c>
       <c r="C64" t="n">
         <v>-10.62</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.44070000000001</v>
+        <v>-21.42750000000001</v>
       </c>
       <c r="B66" t="n">
         <v>5.18</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-20.36289999999998</v>
+        <v>-20.08179999999998</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-21.52969999999998</v>
+        <v>-21.56769999999997</v>
       </c>
       <c r="B74" t="n">
         <v>7.45</v>
@@ -1496,7 +1496,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>6.264499999999997</v>
+        <v>5.348600000000001</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1566,7 +1566,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>4.828100000000004</v>
+        <v>5.094500000000003</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1678,10 +1678,10 @@
         <v>-22.69</v>
       </c>
       <c r="B89" t="n">
-        <v>5.425599999999996</v>
+        <v>5.623699999999996</v>
       </c>
       <c r="C89" t="n">
-        <v>-14.09199999999999</v>
+        <v>-13.78009999999999</v>
       </c>
       <c r="D89" t="n">
         <v>-8.140000000000001</v>
@@ -1709,7 +1709,7 @@
         <v>7.49</v>
       </c>
       <c r="C91" t="n">
-        <v>-12.48220000000001</v>
+        <v>-12.64100000000001</v>
       </c>
       <c r="D91" t="n">
         <v>-8.890000000000001</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-21.6266</v>
+        <v>-21.63860000000001</v>
       </c>
       <c r="B92" t="n">
         <v>4.82</v>
@@ -1748,7 +1748,7 @@
         <v>-21.6</v>
       </c>
       <c r="B94" t="n">
-        <v>4.793499999999992</v>
+        <v>4.761699999999991</v>
       </c>
       <c r="C94" t="n">
         <v>-9.49</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.02780000000001</v>
+        <v>-22.12020000000001</v>
       </c>
       <c r="B100" t="n">
         <v>4.73</v>
